--- a/scientific/3b1b.xlsx
+++ b/scientific/3b1b.xlsx
@@ -16,190 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
-    <t xml:space="preserve">You walk alone into a room to find a chessboard. Each of the 64 squares has a coin sitting
-on top of it. Backing up, this is going to be one of those
-classic prisoner puzzles, where a strangely math-obsessed warden offers you and a fellow
-inmate a chance for freedom, but only if you can solve some elaborate scheme they’ve
-laid out. In this case, that warden has carefully turned
-over the coins to be heads or tails according to whatever pattern they want, and they then
-show you a key, and put it inside one of the chessboard squares [each square is a secret
-compartment or something like that]. So you know where the key is, and your goal
-is to get your fellow prisoner to also know where the key is, but the only thing you’re
-allowed to do before leaving the room is turn over one, and only one, of these coins. At that point, you walk out, your fellow prisoner
-walks in, and with no information other than the set of heads and tails they’re looking
-at, which you’ve barely tweaked, they’re supposed to deduce where the key is hidden,
-potentially winning freedom for both of you. You can strategize ahead of time, but you
-won’t know what the specific layout of heads and tails will be. Moreover, the warden can listen in to your
-strategy and do their best to thwart it with some adversarial arrangement of the coins
-and the key. So I first heard about this puzzle over during
-dinner conversation at a wedding actually, and it just totally sucked me in. I remember the drive home was, maybe, 3 hours,
-and I think my mind was on flipping coins and encoding states that whole time. But the puzzle sticks with you, even after
-solving it, I fell into these two surprisingly interesting rabbit holes. One was to prove this challenge is impossible
-if you vary the setup a little bit, for example if the chessboard was 6x6, or if you removed
-one of its squares. To give you some sense for where that rabbit
-hole leads, this video will end with an especially pleasing way to paint the corners of a 4-dimensional
-cube. The other rabbit hole was to work out how
-closely you could connect the solution of this puzzle with error-correction, which is
-a super important topic in computer science and information theory. The idea is that when computers send and store
-data, the messiness of the real world inevitably flips a bit now and then, which completely
-changes how that data is read, so error correcting codes are a way to add a shockingly small
-amount of added information to a message that makes it possible for a receiver to identify
-that there was an error, and more impressively how to fix it. It turns out the intuitions for solving this
-puzzle are basically identical to the intuitions behind these things called “Hamming Codes”,
-which are one of the earliest examples of highly efficient error correction. Which is all to say that time spent mulling
-over this problem is not as useless as you might think. We actually won’t talk about the solution
-here; instead I filmed a video all about that over on StandupMaths with Matt Parker, who
-many of you may recognize from his combined YouTube, stand up and book fame. We talk about our thought process in solving
-it, and it’s good fun because there are multiple ways of looking at it. Instead what I want to do here is take a more
-global view of all possible strategies for this puzzle, and bring you with me down that
-first rabbit hole of proving why certain variations must always leave room for the warden to thwart
-you, no matter how clever you are. The proof itself involves one of those satisfying
-moments where a shift in perspective reveals a solution, and the whole context leading
-to it is a nice chance to practice reasoning about higher dimensional objects as a way
-to draw conclusions about information and data. Plus, it’ll do more to help you appreciate
-the solution to the original puzzle when you can see how it is, in a sense, almost impossible. We want some kind of visualization for what
-it even means to solve this puzzle. To build up to the general case, let’s knock
-things down to the simplest possible case we can that still has any kind of meaning
-to it: Two squares, two coins, two possibilities for where the key is. One way you could solve this is to simply
-let the second coin communicate where the key is; if it’s tails, it means the key
-is in the left square, and if its heads, the key is in the right square. So if it needs to be changed, you can flip
-it, and if it doesn’t, just flip the other coin. First thing’s first, let’s stop thinking
-of these as heads and tails, and start thinking about 1’s and 0’s; much easier to do math
-with. Then you can think of these pairs of coins
-as a set of coordinates, where the four possible states now all sit on the corners of a unit
-square. This might feel like a silly thing to do when
-we already know how to solve this case, but it’s a good warmup for turning the larger
-cases into geometry. Notice, flipping one of the coins moves you
-along an edge of this square, since it’s only changing one coordinate. The strategy of letting that second coin encode
-the key location can be drawn by associating those bottom two corners, where the y-coordinate
-is 0, with the “key is under square 0” state, and the top two corners with the “key
-is under square 1” state. Think about what it means for our solution
-to work: No matter where you start, if you’re forced to take a step along an edge, forced
-to flip one coin, you can always guarantee you end up in whichever of these two regions
-you want. Now the question is, what does all this look
-like for bigger chess boards? The next simplest case would be three squares,
-three coins, three possibilities for where the key is. This gives 8 possible states the coins could
-be in, and playing the same game of interpreting these states as coordinates, it now brings
-us to 3d space, with each state sitting at the corner of a unit cube. The usefulness of a picture like this is that
-it gives a very vivid meaning to turning over one of the coins. Each flip is a step along one edge of the
-cube. Now, what would it mean for you and your fellow
-inmate to have a strategy for this puzzle? Whenever prisoner 2 walks into the room, they
-need to be able to associate the state they’re looking at, 3 bits, essentially, with one
-of three possible squares. We’re already thinking very visually, so
-let’s think of those three possibilities as colors, red for square 0, green for square
-1, blue for square 2. In this conception, coming up with a strategy,
-any strategy, is the same thing as coloring each of the 8 corners of a cube either red,
-green or blue. For example, coloring the whole cube red would
-– well, I don’t know if you’d call this a strategy exactly – it would correspond
-to always guessing that the key is in square 0. If instead you let the sum of the first two
-coins encode the key location, the cube would look like this. What’s kind of fun is that we can count
-how many total strategies exist. With three choices for the color of each vertex,
-we get 3^8. Or, if you’re comfortable letting your mind
-stray to the thought of painting a 64-dimensional cube, you can think about the sense in which
-there are 64^(2^64) total possible strategies. This is the size of the haystack when we’re
-looking for a needle. Another attempt might look like taking 0*coin0
-plus 1*coin1 + 2*coin2, and reduce it mod 3 if needed; over on Stand-up Maths Matt and
-I talk about trying a version of this for the 64 square case, why it works decently
-well for a random arrangement of coins, and why its ultimately doomed. From our view here, it’s just one more way
-to color the cube, but let’s take a moment to walk through some of the corners. Let’s say you walk in and all three coins
-are tails, so it’s like you’re starting at the corner (0,0,0). Flipping coin 0 doesn’t change the sum,
-so it takes you to another red corner. Flipping coin 1 increases the sum to 1, so
-that takes you to a green corner. And flipping coin 2 takes you up to 2, bringing
-you to a blue corner. The fact that you have access to whatever
-color you want is a reflection of the fact that this strategy will always win if that’s
-the corner you start on. On the other hand, let’s say you started
-at (0,1,0). Flipping coin 0 takes you to another green
-corner, but flipping either coin 1 or coin 2 will take you to a red corner, and there’s
-no way to get to a blue corner. Basically what’s happening here is that
-you have the options to subtract 1, or add 2, and working mod 3 those are actually the
-same operation. But even without thinking about sums mod 3
-or anything like that, you can see this in our picture manifested as a corner with two
-neighbors of the same color. If you don’t have a birds eye view of all
-possible strategies, when you find that any specific one that you try doesn’t work,
-you’re kind just left to wonder if maybe there’s some sneaky clever trick you just
-haven’t thought of. But thinking of colors on the cube, you’re
-naturally led to an interesting combinatorial question: Is there a way to color the cube
-so that the three neighbors of any given vertex will always represent red, green and blue. Maybe it seems bizarre, even convoluted to
-go from a puzzle with chess boards and coins to talking about painting the corners of a
-cube, but this is actually a much more natural step than you might expect. I’ve talked with a lot of people about this
-puzzle, and what I love is that many of the experienced problem solvers immediately jump,
-unprompted, to talking about coloring corners of a cube, as if it’s a kind of de facto
-natural language for this puzzle. And it really is. Thinking about binary strings as vertices
-of a high dimensional cube, with bit flips corresponding to edges, actually comes up
-a lot, especially in coding theory, like the error correction stuff I referenced earlier. What’s more, you very often hear mathematicians
-talk about coloring things as a way to describe partitioning them into different sets. If you’ve ever heard of the hilariously
-enormous number Graham’s constant, for example, the problem where that came up was phrased
-in terms of assigning to colors to a high dimensional cube. Though in that case, colors were given to
-pairs of vertices instead of individual ones. The point is, analyzing how to color a potentially
-high dimensional cube is a more transferable skill than you might think. So to our question, can you make it so that
-every vertex has a red, green and blue neighbor? Remember, this is the same thing as having
-an encoding for key locations so that you’re always one flip away from communicating whichever
-key location you want. It would actually be enlightening if you paused
-the video and tried this, it’s like a weird 3-dimensional sudoku. Very similar to a sudoku, in fact, in the
-sense that you want certain subsets to be filled with all 3 possible states. You might start painting one corner an arbitrary
-color, say red, then painting its three neighbors red, green and blue. It’s red neighbor needs to be adjacent to
-a green and a blue, so you can draw that in. But at least how I’ve done it here, you’re
-stuck, unable to choose the right colors for the next two; can you see why? What I’d like to share is a lovely little
-argument that explains not only why this can never work in three dimensions, but why it
-can’t work in any dimension that’s not a power of 2. The idea is that the symmetry in the property
-we want implies that there should be an equal number of red, green and blue vertices. But that would mean 8/3 of each, which is
-not possible. Before I go on, pause to see if you can think
-of a way to solidify that intuition; it’s a fun exercise in turning a vague instinct
-into a solid proof. One way is to imagine a process where you
-go through each corner, and count how many of its neighbors are a particular color, say
-red. So each step here we’re looking at the three
-neighbors of a given vertex, counting up the red ones, and adding that to a total tally. For this coloring that count came out to be
-12, but if we had the property we wanted, every corner would have exactly 1 red neighbor,
-so you’d get 8. On the other hand, every red corner will be
-counted exactly 3 times, once for each instance when it’s somebody’s neighbor, so that
-final tally must be 3 times the total number of red corners. So it’s simple, just find a coloring where
-8/3’s of the corners are red! Isn’t that nice? Counting how many times some corner has a
-red neighbor is the same as counting how many times a red corner has some neighbor, and
-that’s enough to get us a contradiction. What’s also nice about this argument is
-that it immediately generalizes to higher dimensions. Think about solving the chessboard puzzle
-with n squares; again, the puzzle is to associate each arrangement of coins with some state,
-some key location, so that the arrangements you can get to with one flip represent all
-the possible states; any possible key location. Even if we can’t visualize most high dimensional
-cubes we can still talk about vertices of such a cube and their neighbors as a way to
-describe bit strings and those which sit one bit flip away. There are really just two relevant facts:
-Standing on one of these vertices, you have n different neighbors, and the total number
-of vertices is 2^n, one for each bit string of length n. You can now play the same game we did in 3
-dimensions, going through each corner and counting its red neighbors. If it’s possible to do the coloring you
-want, this sum will be 2^n, one for each vertex. On the other hand, since each red corner is
-counted once for each of its neighbors, that count should be n times the total number of
-red corners. Since the left-hand side is a power of 2,
-the right hand side needs to be a power of 2, which can only ever work if n itself is
-some smaller power of 2. For example in four dimensions, or 64 dimensions,
-there is no contradiction; it’s at least possible to evenly divide the vertices among
-the colors. To be clear, that’s not the same as saying
-there necessarily is a solution for powers of two, just that it can’t be ruled out
-yet. This, to me, is completely delightful. Just by imagining coloring the corners of
-a cube and counting how many are of each color, you can conclude that no possible strategy,
-no matter how clever you are, can work in all cases for this chessboard puzzle if the
-number of squares is not a power of 2. So if we knocked off a square, or if the board
-was 6x6 instead of 8x8, the task is hopeless. It also means that the solution to the chessboard
-puzzle, which I’ll point you to in a moment, can be viewed as a particularly symmetric
-way to color the corners of a high dimensional cube in a manner disallowed in most dimensions. If you’re curious, I couldn’t resist showing
-this explicitly for a 4-dimensional cube. In the same way that you can take a 3d cube
-and project it down into two-dimensions with a little perspective to show the same graph
-structure of vertices and edges on a flat plane, we can do the same projecting a 4d
-cube into 3d space and still get a full view of how all the vertices and edges are connected. If you wanted to try your hand at a sort of
-4-dimensional cousin of a sudoku, you could pause and see if you can figure out how to
-color these vertices in such a way that the four neighbors of any vertex represent all
-four colors. Using essentially the same computation that
-solves the chessboard puzzle for the four-square case, I can get the computer to draw it out
-for us. At this point, I’d like you to hop over
-to StandupMaths where Matt and I show how this solution works. If any of you are somehow not yet familiar
-with StandupMaths, it’s one of my favorite channels, run by one of my all-time favorite
-people, so please do immediately subscribe once you land over there. You’re in for quite a few delights with
-everything else the channel has to offer. Before explaining it he and I just show what
-it looks like for us to actually perform the solution, and as we do I really want you to
-try thinking of the solution yourself and predict what it is we’re doing before we
-tell you. And if you’re curious about the connection
-with Hamming codes and error correction, I’m certainly game to make a video on that, let
-me know in the comments. I’ve been told that not everyone is as interested
-in symmetrical ways to paint a 64-dimensional cube as I am, but reliable data transmission? I think we can all agree that’s universally
-sexy. </t>
+    <t>content</t>
   </si>
   <si>
     <t>welcome back everybody it's hard to define exactly what mathematicians mean when they use the phrase problem-solving however you go about it it's going to involve some notion of approaching puzzles that you've never seen before and still being able to systematically and creatively find some solution to them but that's a weird thing when you think about it because it makes it a very hard thing to teach I mean you can teach someone how to solve one particular problem maybe even a class of problems and teach them how to solve another problem but how do you teach someone how to approach a problem that they've never seen before and still make progress on it well I honestly don't know how but what I want to do for this lecture is to talk through a couple different problem-solving principles I've enumerated nine of them in total and each one we're gonna walk through in the context of a specific example and I think each one is kind of simple you'll look at it and you'll nod along thinking yeah yeah of course that's the thing that you should do but I would argue that each one is deceptively simple that you would be shocked at how often you can make very meaningful progress in very hard problems just by keeping some of these tips in the back of your mind and to give you a little flavor for where we're going to be going today I want to ask not as a quiz that I expect you to necessarily be able to solve here on the spot I want to ask you a question that we will be solving later on in the lecture just so you can have it in the back of your mind a little thing to mull over any a hard problem that will be fun to tackle when the time comes so the question asks suppose that two numbers are chosen at random from the range 0 through 1 and it's done according to a uniform distribution so maybe you pick like 0.385 and point 5 8 9 6 2 or something like that each one is chosen at random suppose P is the probability that the ratio of the first number to the second rounds down to an even number so you know maybe it rounds down to zero or rounds down to 2 or to 4 and basically it's asking you to guess where is this probability you know we'll solve it exactly we'll get an exact expression but just intuitively as you hear the problem when you think of choosing two random numbers between 0 &amp; 1 looking at their ratio what do you think that probability is going to be well return back to this later and one thing I want to say is that this whole live quizzing software it's something that's built by some friends of mine Ben eater who many of you may know because of his YouTube fame and then another person who used to work with us at Khan Academy named kam Kristensen and this is just one small little outcropping of what's actually a much deeper product at play and I want to give you a little preview of some of the other things that they've been working on that will be developing so if any of you want to share some of the lectures here or go back and kind of go through the live quizzing experience if you go to the link that it's in the description but it's at item pool comm /c / 3 b 1b but you can follow the description you can basically watch the lectures in a way where you can do these live quizzes along with it and your progress is tracked and you get scores and things like that so as you skip ahead to various different questions it will skip you to the right point in the video and as the video plays forward you'll also get to yeah there's just me talking through some problem you'll also get to whatever the appropriate part of the problem is they often have explanations associated with them and hints and things like that and ultimately if you look back in just a couple days I'm going to fill out like homework and challenge problems so if you like challenging problem solving contest math type stuff I'm gonna put things that are relevant to the lectures in there which I think should be fun it's not not quite there yet but definitely check back and I'm sure just over the next couple months there will be more item portion Anakin's going on if any of you want to use this maybe to do some live polling in your own live classes for teachers who are dealing with the whole remote landscape or if you have your own streams anything like that they are looking for beta users so feel free to reach out to them it should be available on the website now let's dive into the actual content shall we some of the nine deceptively simple problem-solving tricks and before we do I want to specify that at some point today in the next hour I'm going to purposefully make a mistake okay and I tell you that for two reasons one so that you keep your eye out and you you know you're a little bit skeptical of each of the claims that I make and two so that when I make that mistake and you notice it and you're just you know throwing things at the screen you're getting angry you're clicking that unsubscribe button you can at least quell a little bit of what you're thinking so just keep that in mind there will be one very purposeful mistake now before we get to the problem solving tip I want to talk about geometry this is one thing I was hoping to do a little bit more of in this series but this would be just a fun time to give a little example of it and in particular I want to talk about one of my favorite little bits of geometry it's not too simple but it's also not too hard it's called the inscribed angle theorem it comes up way more than is reasonable for a simple little theorem like this to actually come up when you're solving problems okay and basically an inscribed angle of a circle refers to if you have two lines that meet at a point of that circle and what we care about is this little angle in here okay and if you were just studying this if you're an early mathematician trying to make sense out of this you might make a guess that something about this angle is going to be related to the arc of the circle that those lines hit I mean that arc can also be described as an angle of some kind if we draw lines from the center of the circle it makes it a little bit clearer so I'm just gonna draw a couple green lines here and Mark that we have a different angle here and maybe I give them names I'll call this one theta L for like the large angle and this one I'm gonna call theta s it's the small angle and you might wonder is there a relationship between these two angles and if so what is it and for our purposes today the question is how do you systematically approach a puzzle like this find a relationship between these two and prove prove its existence so problems of problem solving tip it's not problems if problem solving tip number one which is just just so useful in a way that again is kind of deceptively simple make sure you're always using the defining features of whatever your setup is I swear a good 70% of the problem sets that I did as an undergraduate math major essentially came down to looking at what was given asking very critically what is the definition of each term involved here unraveling those definitions and then just seeing how they pieced together so use whatever's the defining feature in our context what is defining the various points and intersections that we have here well it's the idea that they're on a circle a circle is by definition all of the points that are a common distance from the center so in particular we know that this length is a radius of the circle and this length is a radius of the circle we should use the fact that those are the same but moreover this other point P that was not just chosen at random it's defined to be on the circle and unraveling what that means it means it is a common distance away and it's the same distance away from the center as these other points so I and then inspired to draw a line to add something to the picture and to note that it's the same there you know quite often when you see people solve hard geometry problems it comes down to adding something to the picture and the most beautiful geometry involves adding something that seems out of left field and it just illuminates everything you shift your perspective and sometimes you look at him you wonder like how would you have known what to add like I get I'm supposed to draw an extra circle here or put a you know put a rectangle around this triangle whatever it is you're doing but how do you how do you systematically know what you should add so in this context if it relates to the definition of your objects probably a good idea and that line actually will be helpful to us we can start giving a couple things names that's something that a hint maybe it shouldn't even be described as a tip but I've put it down as number two that when you give things meaningful names that actually helps you move forward in your problem and in this context it might seem like an innocuous thing I'll call this little angle that we formed with our radius alpha and this little angle beta and just to see if that helps us move forward you know recognizing if alpha and beta show up elsewhere rather than me telling you I would like you to tell me in the context of our next quiz question so before I answer that probability one for you I'm gonna pull up question number two for today we've got a diagram essentially what we just drew the dot in the middle is the center of the circle and I've labeled seven different angles I've just labeled them a through G and what I want you to do is tell me which of these equations is true one possibility is that four of the angles a B D and E have a sum that's the same as C plus F plus G which just looking at C F and G that would be 360 degrees right the other is that a is equal to B and D is equal to e another possibility is that C is equal to F and then maybe it's all of those or maybe it's none of those and it looks like we already have strong strong consensus on this one with 360 400 just a strong large number of people coming in agreeing what they believe the right answer is and you know if you if you want to be involved the place to go 3 B 1 B Co /live that redirects you to an item pool page so that you can follow along and for those who are watching in the future maybe you're watching it in the embedded page where the problem is just sitting right below you and even if you're not technically participating in the data contributing to the live statistics what I was going through it it's honestly pretty fun to just kind of looking like I know I'm not a part of this but it kind of feels like I am a part of what was happening so I just love it alright so because there's such strong consistence consensus I feel comfortable grading this I thought I got it right on one one one one so the correct answer is that a is equal to B D is equal to E and then none of the others are necessarily true and let's let's walk through why that's the case yeah it comes down to exactly what we just highlighted that these radii are common which means you know let me just give more things names let's call this point a and this point B maybe that's confusing cuz I was just naming angles and B but separate contacts separate picture you know what I mean the triangle a P and then the center of the circle that's isosceles you know there's this symmetry about I could even draw the little axis of symmetry and that tells us that this is also alpha likewise the triangle up here is isosceles and that tells us that this has an angle of beta and what we just did in effect is leverage a little bit of symmetry in this case it was innocuous but quite often looking for symmetry in much harder setups it's super generalizable and it definitely will help you move forward if you recognize that there's something symmetric use that symmetry in some way which is effectively what we've just done giving things a couple more names I might want to call this angle I'll call it something related to the alphas so maybe I just call it alpha Prime and similarly this angle over here is beta Prime and by noting those facts I have everything I need to do to draw a connection between this small angle and this large angle we essentially just write down the facts that we have based on the triangles we're looking at so the triangle with all of the Alpha angles the sum of those angles has to be a hundred eighty degrees and there's two different alphas in there and then there's an alpha Prime and instead of writing a hundred eighty degrees of course we like radians so I'm going to say that equals PI radians similarly the one with all of the betas tells us that if we take two times beta and we add beta prime that's also PI and then the other fact that we have that just popping right out from the image is that alpha prime beta Prime and theta L add up to 360 degrees or two pi so just writing down all of the relevant facts that we have now we have some objects that we can manipulate and work with to draw some kind of conclusion which again we're looking for a connection between theta small and theta large and I know a lot of you you're three blue and brown audience members you know about the inscribed angle theorem but I really want you to think about this from a beginner's mind right if you were just approaching this and you didn't necessarily already know about it what would you have done to find that solution and what principles can you take away as you do that because that helps us as we start to get to harder and harder geometry setups so in this context once I have these three equations recognizing that there's an alpha prime here and one here there's a beta prime here and one here I might think about cancelling them out so I'm gonna you know add this top equation and maybe I've subtract off the other two equations and to subtract these off and what that means is the Alpha prime gets cancelled so does the beta prime I'm left with my large angle I'm subtracting off two times alpha plus beta you know each of those get subtracted off with the coefficient two and then we have two pi minus two copies of Pi so that's all equal to zero which is saying the same thing as theta L is equal to two times well rather than writing alpha plus beta I'll just recognize that that is the small little angle that we had it's two times the small angle again I can't emphasize enough just what a weirdly useful fact this turns out to be in various geometry puzzles you might do it's definitely come up on the channel a number of times in circumstance regarding you know complex numbers or pure geometry situations of course just anytime you want to relate an angle to two times that angle realizing them in the context of a circle like this can be strangely useful so this is just an image to have burned in your mind as you're solving problems and to give you one example of a problem that you can solve once this is sitting there burned in the back of your mind I want you to remember back to the lecture that we did on trigonometry which conveniently it's actually the example that I had pulled up here so one of the central things we were talking about was how just playing with graphs you can get this bizarre-looking fact that if you square the cosine function you get something that looks again just like a cosine graph and you can get more exact about that where if we start with an initial cosine graph and you manipulate it a little you know we shift it up we scale it down we say we need to double the frequency you get the exact same graph so we have two different expressions for the same thing but it's not at all obvious why these would be related one of them involves doubling the angle it's a reference to the other involves squaring the output okay so it's an obvious fact we proved it using complex numbers but what I'd like to do is try to prove this using geometry to kind of viscerally see the fact pop out right in front of us and to do that let's go ahead and write down what the fact is again so that we can start thinking about it we want to find that the cosine squared of theta which is just saying take the cosine of theta and square it it's that awkward notation is equal to 1/2 of 1 plus cosine of 2 theta you've got the strained relationship between squaring things and doubling the angle which as we've talked about in the whole series is really a reflection of the fact that a cosine is a shadow of an exponential function but let's say you didn't know that we want to see if this relating geometrically so you don't already know the double angle identities or anything like that you just want a very direct understanding of this particular equation well one common thing that comes up is that a way to show the two non obvious things are related or even equal is to see if you can find one object that you can describe in two different ways so we're going to look for one object that we have two different descriptions of and this often can give you nice equations in this context it might mean relating the left and right hand side this comes up in combinatorics all the time when you have a counting puzzle where you know you do something like count how many ways you can have a string of five bits that are either zeros or ones and on the one hand you can count it multiplicatively kind of going through each one and saying well you're multiplying the possibilities by two but on the other hand you can go iteratively and say well how many of them have no ones how many of them have one one two ones something that kind of seems harder and a more awkward way to count but by describing the same thing twice you end up with this really not obvious fact from an algebraic standpoint and we're going to do the same thing more geometrically here but again just gotta emphasize how like how general this ends up being so what we want is some kind of object that each of these describes and to do that maybe we just think okay let's let's draw a unit circle which is where something like a cosine typically comes up well for the first time in my life I drew a quarter circle arc that wasn't terrible it's not great but usually that comes out much more disastrous how pleasing it should not be so pleased with a terrible quarter circle great okay so that's our angle theta right and what does cosine mean in this context not cosine squared but just plain vanila cosine well it tells us if we look at the x-coordinate of this point that's the cosine of our angle and so now I want you to think about how can we represent the square of the cosine as some kind of object some geometric thing that we can point to in this image and the first instinct might be something like well let's draw a square off the side of this you know something with area to it and interpret it like that but then there's going to be a problem if the principle that we're trying to apply is describing the same object in two different ways because if we describe this left-hand side as some kind of area that would mean that we have to find another description of that same area that same object with the right-hand side but that's going to be weird because this doesn't involve squaring or anything like that if it's just a plain vanila cosine term it seems much more natural to describe that as some kind of ratio or maybe some kind of length it's just that we need the two theta to pop up somehow so instead let's seek a way to describe cosine squared that does not involve area but is instead something more of the flavor of a ratio or a length and in this context the key comes down to leveraging symmetry again and it's a sneaky bit of symmetry it's something we didn't talk about in the trek lecture but I love it so much I'll talk about it again if we think of this angle theta on the one hand it's telling us the angle between the x-axis and the line but on the other hand it's also telling us the angle between the line and the x-axis and I know that see it sounds like the same thing but it means when I say project down the point at the end of our radius which was length one perpendicularly onto the x-axis that length got scaled down by cosine theta but now what if I do things the other way what if I say I want to project down in a perpendicular fashion onto this line well again I just have two lines separated by an angle theta I'm doing a projection which means it gets scaled down by the cosine of that angle so now I'm taking the cosine of theta scaled down by the cosine of theta and it gets me cosine squared of theta so cosine squared refers to this length a portion of the hypotenuse of our right triangle if that hypotenuse had a length of 1 which in our unit circle it always does and incidentally you can show very similar reasoning that the sine of theta is this other other portion of that hypotenuse and this gives you a nice sort of a clever proof of the Pythagorean theorem baby of double projecting based on asking you know is is this line theta degrees away from that or is that line theta degrees away from this it sounds like you're saying the same thing but it gets you something of mathematical substance to recognize that symmetry now why do I say this well we have a representation of cosine squared what we want now is to do something in terms of two theta we just were thinking about a context where we're able to relate an angle to two theta two to two times that angle so somehow we want to realize this this angle as an inscribed angle of some kind of triangle and I'll show you okay how you can do that but before I do just to mention another fact that if you been puzzlingly around with these sorts of things might be burning in your mind is a specific instance of the inscribed angle theorem called Thales theorem so let's say that that large angle we had two theta was actually a hundred eighty degrees and it was pi radians what would that mean in terms of the inscribed angle theorem it means that if we take that diameter of the circle it's 180 degrees it's just drawing out a diameter and we have an inscribed angle with lines that hit either end of that diameter then this angle is necessarily half of that so what it means is that we can we can put a right triangle inside a circle and whenever you do that the hypotenuse of the right triangle is exactly the diameter of that circle it's a very cute fact if you wanted another proof of it that's not just via the the inscribed angle theorem there's another very wonderful leveraging of symmetry that you can do where basically you take this point and you say I'm going to reflect it through the origin reflect it through the center of my circle and see where I get and recognize that reflecting to the center is the same as rotating the whole image 90 degrees so if I have rotated the image 90 180 degrees my other vertex would end up at that same point but now what we have is a quadrilateral and one of the diagonals is a diameter of the circle but the other diagonal is also a diameter of the circle which in particular means they have the same midpoint under the same distance apart and it can convince yourself a little that implies it must be a rectangle that could also be a little side homework problem if you wanted to chase around the relevant angles but I think that's a very beautiful way to think about fales theorem that you reflect everything 180 degrees and you necessarily conclude it must be a rectangle which means that this is a right angle now for our purposes what does that mean well we've got a right triangle sitting here that's from zero we've got one of the points here another point on the circle let's inscribe that in a separate circle okay so I'm going to take a copy of that triangle but I'm going to instead of making the hypotenuse a radius of the circle I'm gonna make that hypotenuse a diameter of the circle so this is still going to be an angle of theta sitting right here the basically I flipped it around so previously I was here but I flipped it around so that my ninety degree angle is sitting up unto the right rather than sitting down here the length that we care about is what what happens when we project from the point at that ninety degree angle in a perpendicular fashion down onto the hypotenuse which now looks like this and what we care about is this long length okay and actually let me ask you as a is a live quiz to see if you can come up with an expression for that length in the context of the diagram that we're now looking at so pulling up our quiz again congratulations to everyone who got this one correct let me give you a little bit of time to think about this one because this is this is kind of a heart part of the heart of this particulate proof and I think it's very very pleasing to see so it specifies that the hypotenuse of the large bright triangle above has a length of 1 in our context B is because it came from the hypotenuse of the triangle drawn in a unit circle so that potenuse has a length of 1 what is the length L in terms of theta yeah so can you find an expression for L in terms of theta and I'll give you a little bit of a little bit of time for that bring back our pause and ponder music get myself a chance to take a drink once again it looks like we have some strong consensus for today so while answers are rolling in before I grade it I'm just gonna go ahead and start describing how it goes since it seems like a lot of you are already well ahead of me it's fun to have though so of course we're going to use the inscribed angle theorem that is the whole reason and bringing it up here it's a way to relate a single angle to twice that angle so in this context I would draw some lines from the centre of my of my new smaller circle that has radius only 1/2 and recognize that this is 2 theta and this is just lovely now isn't it because what is the length we care about part of it excuse me part of it is the radius which is 1/2 but then the projection down according to 2 theta onto this remaining leg ends up being that radius 1/2 times the cosine of 2 theta and of course that's exactly what we want it to be we've got the whole radius which is 1/2 and then we're multiplying that by 1 plus the cosine of 2 theta it's a radius of the circle times a scaled down version of that radius so that's two different ways of viewing the same object which is what we get when we take this right triangle and we project down and look at what part of the hypotenuse that cuts off and it gives us this non-trivial relationship in trigonometry between the cosine squared and the cosine of 2 theta the fact that otherwise we were going into like complex numbers and Exponential's to understand so I think that's quite beautiful I think that's just one of the many many instances of where the inscribed angle theorem suspiciously lotion it's just suspiciously shows up and again what I want you to take away is this principle that if you can have one object described in two different ways very powerful in terms of showing non obvious how to break relations or anything that's kind of written down symbolically without immediate intuition on top of it so with all of that let's actually turn to the probability question that I asked at the beginning of the lecture so going back to our live quiz I will go ahead and grade what we we all now know the correct answer so for those of you in a minute oh it was marked incorrectly oh that's my bad no I just slipped this one in like last minute before the lesson today so I I might have like swapped around what the answers were so well it looks like 1380 if we were absolutely wrong according to whatever jerk wrote this quiz so I don't know how that shows up on the user interface if it's like shocking read like oh no but D was the actual correct answer here so congratulations to those of you who got that now back to our probability question I'm curious to see what people said on this one just in terms of their instincts so this one we had a little bit more of a spread and ah interesting here the actual correct answer does show up quite a bit quite a bit lower than and now I'm questioning myself to make sure that I've actually written the thing appropriately so just as a reminder of what the question is we're choosing two random numbers from the range 0 through 1 each according to a uniform distribution and we're we're guessing what the probability that they round down the ratio of these numbers rounds down to an even number remember 0 is an even number so that it rounds down to 0 where 2 or 4 or anything like that now this is a tricky problem to think about and definitely no no fault at all for anyone who isn't immediately able to see roughly where it should be but I think with a with a little bit of progress on our way even before we get the exact solution we can get to a point where you might be able to intuitively give some kind of ballpark estimate so what have we got here choosing two random numbers between 0 &amp; 1 I think that's a weird thing to think about especially if you're not familiar with probability that well or when the phrase uniform distribution is thrown up if it's not clear what that means but essentially it's what you would expect when you're choosing some random point on this line and the idea is that each point is as likely as another or more specifically a given range of points of a certain size should have a given probability that's independent of where that range showed up it's only dependent on its size now so you might have in the back of your mind the idea that we've chosen two points there each somewhere between 0 and 1 and just to give an example of what we mean by uniform distribution the probability that X sits between point three and like zero point five because it's going to be somewhere between zero and one and the length of that range is zero point two about a fifth of the entire length that could have come from what it means to be uniform is that that probability is actually just the length of the segment that it came from now one thing you might ask is well what if what about the probability that it's precisely 0.3 or precisely 0.5 would it matter if we made these less than or equal to signs and the answer is it doesn't actually matter because the probability of hitting any specific value on a real number line ends up being 0 this is a thing that I find very confusing how can a probability of an event that's possible it's definitely possible to hit 0.3 have probability 0 made a whole video about it trying to describe this but really what it comes down to is that the things that have probability you should think of ranges those are the fundamental objects and it doesn't really matter how we treat the boundary and just think in terms of ranges even still though what we're asking is a very bizarre question which is if we take the ratio of x and y and we round that down which sometimes no mathematicians write using this floor function saying we find the greatest integer smaller than that how do we know if that's an even number that's a weird thing to think about it's a hard problem in that way so you know if you think through the principles here it's kind of like use the defining features of the set up well not clear how to use the fact that it's a uniform distribution I guess we'll be using lengths in some way to yield probabilities so maybe that gives us some geometry but that's not really helpful give things meaningful names you know maybe x and y are meaningful or some something suggestive like that symmetry ok maybe you know the idea that choosing X and then Y is as likely as choosing Y than X you could use that to conclude that this ratio x over Y is as likely to be above 1 as it is to be below 1 and that actually does tell you something because if we're wondering how often do you round down to be 0 right you can say well x over Y is as likely to be x is as likely to be bigger than Y as Y is likely to be bigger than X so there's a 50/50 chance that this should happen this would be probability of si percent so let gets you somewhere which is kind of nice but it's not clear how you would apply that to things like the even numbers same object two different ways unclear so principle number five here is where we're going to come in again it seems simple it's something that you cannot along be like yeah yeah drawing pictures it helps to think through what I'm looking at but really when you find yourself struggling with some setup that's not already visual or pictorial you know it doesn't have to be making a geometric but just having some kind of sketch to give meaning to your terms can be very helpful and as a more specific problem-solving tip when you have some numbers multiple different numbers see if you can make them coordinates in some space so rather than th</t>
@@ -5503,8 +5320,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -5520,7 +5345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5528,12 +5353,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5828,14 +5671,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A108"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5934,338 +5777,338 @@
         <v>19</v>
       </c>
     </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>66</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
